--- a/rnaSample/rnaSample_J.PLAGGENBERG_08.27.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_08.27.19.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/rnaSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A93DD5-E5D5-E643-9EF1-57585AB4988F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22220" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="20">
   <si>
     <t>harvestDate</t>
   </si>
@@ -71,28 +80,29 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>08.16.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -102,48 +112,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -333,20 +344,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +414,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -406,7 +422,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
@@ -415,7 +431,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
@@ -436,7 +452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -444,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -453,7 +469,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -474,7 +490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -482,7 +498,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -491,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
@@ -512,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -520,7 +536,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -529,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
@@ -550,7 +566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -558,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -567,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -588,7 +604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -596,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -605,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -626,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -634,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -643,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -664,7 +680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -672,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
@@ -681,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
@@ -702,7 +718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -710,7 +726,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
@@ -719,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>15</v>
@@ -740,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -748,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -757,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>15</v>
@@ -778,7 +794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -786,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
@@ -795,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>15</v>
@@ -816,7 +832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -824,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
@@ -833,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>15</v>
@@ -854,7 +870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -862,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
@@ -871,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -892,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -900,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -909,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>15</v>
@@ -930,7 +946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -938,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -947,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>15</v>
@@ -968,7 +984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -976,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
@@ -985,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>15</v>
@@ -1006,615 +1022,231 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4">
-        <v>28.0</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4">
-        <v>31.0</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4">
-        <v>32.0</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rnaSample/rnaSample_J.PLAGGENBERG_08.27.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_08.27.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -84,7 +84,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -106,6 +106,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,19 +178,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -211,8 +221,8 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,7 +237,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -279,10 +289,10 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -291,19 +301,22 @@
       <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="b">
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="b">
+      <c r="K2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -317,10 +330,10 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -329,19 +342,22 @@
       <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="b">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6" t="b">
+      <c r="K3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -355,10 +371,10 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -367,19 +383,22 @@
       <c r="F4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="b">
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="b">
+      <c r="K4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -393,10 +412,10 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -405,19 +424,22 @@
       <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="b">
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6" t="b">
+      <c r="K5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -431,10 +453,10 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -443,19 +465,22 @@
       <c r="F6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="b">
+      <c r="K6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -469,10 +494,10 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -481,19 +506,22 @@
       <c r="F7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="b">
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="6" t="b">
+      <c r="K7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -507,10 +535,10 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -519,19 +547,22 @@
       <c r="F8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="b">
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="b">
+      <c r="K8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -545,10 +576,10 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -557,19 +588,22 @@
       <c r="F9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="b">
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="6" t="b">
+      <c r="K9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -583,10 +617,10 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -595,19 +629,22 @@
       <c r="F10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="b">
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="6" t="b">
+      <c r="K10" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -621,10 +658,10 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -633,19 +670,22 @@
       <c r="F11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="b">
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6" t="b">
+      <c r="K11" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -659,10 +699,10 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -671,19 +711,22 @@
       <c r="F12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="b">
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="6" t="b">
+      <c r="K12" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -697,10 +740,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -709,19 +752,22 @@
       <c r="F13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="b">
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="6" t="b">
+      <c r="K13" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -735,10 +781,10 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -747,19 +793,22 @@
       <c r="F14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="b">
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="6" t="b">
+      <c r="K14" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -773,10 +822,10 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -785,19 +834,22 @@
       <c r="F15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="b">
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="6" t="b">
+      <c r="K15" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -811,10 +863,10 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -823,19 +875,22 @@
       <c r="F16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="b">
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="6" t="b">
+      <c r="K16" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -849,10 +904,10 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -861,19 +916,22 @@
       <c r="F17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="b">
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="6" t="b">
+      <c r="K17" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_08.27.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_08.27.19.xlsx
@@ -112,6 +112,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -222,7 +223,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,8 +305,7 @@
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="7" t="n">
@@ -345,8 +345,7 @@
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="7" t="n">
@@ -386,8 +385,7 @@
       <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
@@ -427,8 +425,7 @@
       <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="n">
@@ -468,8 +465,7 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="7" t="n">
@@ -509,8 +505,7 @@
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="7" t="n">
@@ -550,8 +545,7 @@
       <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="7" t="n">
@@ -591,8 +585,7 @@
       <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="7" t="n">
@@ -632,8 +625,7 @@
       <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="7" t="n">
@@ -673,8 +665,7 @@
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="7" t="n">
@@ -714,8 +705,7 @@
       <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="7" t="n">
@@ -755,8 +745,7 @@
       <c r="G13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="7" t="n">
@@ -796,8 +785,7 @@
       <c r="G14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="7" t="n">
@@ -837,8 +825,7 @@
       <c r="G15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="7" t="n">
@@ -878,8 +865,7 @@
       <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="7" t="n">
@@ -919,8 +905,7 @@
       <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
